--- a/xlsx/aerob-run-12min.xlsx
+++ b/xlsx/aerob-run-12min.xlsx
@@ -59,7 +59,137 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2016,7 +2146,7 @@
         <v>1530</v>
       </c>
       <c r="V22" s="1">
-        <v>1490</v>
+        <v>1480</v>
       </c>
       <c r="W22" s="1">
         <v>1355</v>
@@ -2090,7 +2220,7 @@
         <v>1540</v>
       </c>
       <c r="V23" s="1">
-        <v>1500</v>
+        <v>1485</v>
       </c>
       <c r="W23" s="1">
         <v>1360</v>
@@ -2164,7 +2294,7 @@
         <v>1550</v>
       </c>
       <c r="V24" s="1">
-        <v>1510</v>
+        <v>1490</v>
       </c>
       <c r="W24" s="1">
         <v>1375</v>
@@ -2238,7 +2368,7 @@
         <v>1560</v>
       </c>
       <c r="V25" s="1">
-        <v>1520</v>
+        <v>1495</v>
       </c>
       <c r="W25" s="1">
         <v>1390</v>
@@ -2312,7 +2442,7 @@
         <v>1570</v>
       </c>
       <c r="V26" s="1">
-        <v>1530</v>
+        <v>1500</v>
       </c>
       <c r="W26" s="1">
         <v>1400</v>
@@ -2386,7 +2516,7 @@
         <v>1580</v>
       </c>
       <c r="V27" s="1">
-        <v>1540</v>
+        <v>1515</v>
       </c>
       <c r="W27" s="1">
         <v>1410</v>
@@ -2460,7 +2590,7 @@
         <v>1590</v>
       </c>
       <c r="V28" s="1">
-        <v>1550</v>
+        <v>1520</v>
       </c>
       <c r="W28" s="1">
         <v>1420</v>
@@ -2534,7 +2664,7 @@
         <v>1600</v>
       </c>
       <c r="V29" s="1">
-        <v>1560</v>
+        <v>1530</v>
       </c>
       <c r="W29" s="1">
         <v>1430</v>
@@ -2608,7 +2738,7 @@
         <v>1615</v>
       </c>
       <c r="V30" s="1">
-        <v>1570</v>
+        <v>1540</v>
       </c>
       <c r="W30" s="1">
         <v>1440</v>
@@ -2682,7 +2812,7 @@
         <v>1630</v>
       </c>
       <c r="V31" s="1">
-        <v>1580</v>
+        <v>1550</v>
       </c>
       <c r="W31" s="1">
         <v>1450</v>
@@ -2756,7 +2886,7 @@
         <v>1645</v>
       </c>
       <c r="V32" s="1">
-        <v>1590</v>
+        <v>1560</v>
       </c>
       <c r="W32" s="1">
         <v>1460</v>
@@ -2830,7 +2960,7 @@
         <v>1660</v>
       </c>
       <c r="V33" s="1">
-        <v>1600</v>
+        <v>1570</v>
       </c>
       <c r="W33" s="1">
         <v>1465</v>
@@ -2904,7 +3034,7 @@
         <v>1670</v>
       </c>
       <c r="V34" s="1">
-        <v>1610</v>
+        <v>1580</v>
       </c>
       <c r="W34" s="1">
         <v>1470</v>
@@ -2978,7 +3108,7 @@
         <v>1680</v>
       </c>
       <c r="V35" s="1">
-        <v>1620</v>
+        <v>1590</v>
       </c>
       <c r="W35" s="1">
         <v>1480</v>
@@ -3052,7 +3182,7 @@
         <v>1690</v>
       </c>
       <c r="V36" s="1">
-        <v>1630</v>
+        <v>1600</v>
       </c>
       <c r="W36" s="1">
         <v>1490</v>
@@ -3126,7 +3256,7 @@
         <v>1700</v>
       </c>
       <c r="V37" s="1">
-        <v>1640</v>
+        <v>1610</v>
       </c>
       <c r="W37" s="1">
         <v>1500</v>
@@ -3200,7 +3330,7 @@
         <v>1710</v>
       </c>
       <c r="V38" s="1">
-        <v>1650</v>
+        <v>1620</v>
       </c>
       <c r="W38" s="1">
         <v>1510</v>
@@ -3274,7 +3404,7 @@
         <v>1720</v>
       </c>
       <c r="V39" s="1">
-        <v>1660</v>
+        <v>1630</v>
       </c>
       <c r="W39" s="1">
         <v>1520</v>
@@ -3348,7 +3478,7 @@
         <v>1730</v>
       </c>
       <c r="V40" s="1">
-        <v>1670</v>
+        <v>1640</v>
       </c>
       <c r="W40" s="1">
         <v>1530</v>
@@ -3422,7 +3552,7 @@
         <v>1740</v>
       </c>
       <c r="V41" s="1">
-        <v>1680</v>
+        <v>1650</v>
       </c>
       <c r="W41" s="1">
         <v>1540</v>
@@ -3496,7 +3626,7 @@
         <v>1750</v>
       </c>
       <c r="V42" s="1">
-        <v>1690</v>
+        <v>1665</v>
       </c>
       <c r="W42" s="1">
         <v>1545</v>
@@ -3570,7 +3700,7 @@
         <v>1765</v>
       </c>
       <c r="V43" s="1">
-        <v>1700</v>
+        <v>1680</v>
       </c>
       <c r="W43" s="1">
         <v>1560</v>
@@ -3644,7 +3774,7 @@
         <v>1780</v>
       </c>
       <c r="V44" s="1">
-        <v>1710</v>
+        <v>1685</v>
       </c>
       <c r="W44" s="1">
         <v>1570</v>
@@ -3718,7 +3848,7 @@
         <v>1790</v>
       </c>
       <c r="V45" s="1">
-        <v>1720</v>
+        <v>1700</v>
       </c>
       <c r="W45" s="1">
         <v>1580</v>
@@ -3792,7 +3922,7 @@
         <v>1800</v>
       </c>
       <c r="V46" s="1">
-        <v>1730</v>
+        <v>1710</v>
       </c>
       <c r="W46" s="1">
         <v>1590</v>
@@ -3866,7 +3996,7 @@
         <v>1810</v>
       </c>
       <c r="V47" s="1">
-        <v>1740</v>
+        <v>1720</v>
       </c>
       <c r="W47" s="1">
         <v>1600</v>
@@ -3940,7 +4070,7 @@
         <v>1825</v>
       </c>
       <c r="V48" s="1">
-        <v>1750</v>
+        <v>1730</v>
       </c>
       <c r="W48" s="1">
         <v>1610</v>
@@ -4014,7 +4144,7 @@
         <v>1840</v>
       </c>
       <c r="V49" s="1">
-        <v>1760</v>
+        <v>1740</v>
       </c>
       <c r="W49" s="1">
         <v>1620</v>
@@ -4088,7 +4218,7 @@
         <v>1850</v>
       </c>
       <c r="V50" s="1">
-        <v>1770</v>
+        <v>1750</v>
       </c>
       <c r="W50" s="1">
         <v>1630</v>
@@ -4162,7 +4292,7 @@
         <v>1860</v>
       </c>
       <c r="V51" s="1">
-        <v>1780</v>
+        <v>1765</v>
       </c>
       <c r="W51" s="1">
         <v>1640</v>
@@ -4236,7 +4366,7 @@
         <v>1870</v>
       </c>
       <c r="V52" s="1">
-        <v>1790</v>
+        <v>1780</v>
       </c>
       <c r="W52" s="1">
         <v>1650</v>
@@ -4310,7 +4440,7 @@
         <v>1880</v>
       </c>
       <c r="V53" s="1">
-        <v>1800</v>
+        <v>1790</v>
       </c>
       <c r="W53" s="1">
         <v>1660</v>
@@ -4384,7 +4514,7 @@
         <v>1890</v>
       </c>
       <c r="V54" s="1">
-        <v>1810</v>
+        <v>1800</v>
       </c>
       <c r="W54" s="1">
         <v>1670</v>
@@ -4458,7 +4588,7 @@
         <v>1900</v>
       </c>
       <c r="V55" s="1">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="W55" s="1">
         <v>1680</v>
@@ -4532,7 +4662,7 @@
         <v>1910</v>
       </c>
       <c r="V56" s="1">
-        <v>1830</v>
+        <v>1825</v>
       </c>
       <c r="W56" s="1">
         <v>1690</v>
@@ -5204,7 +5334,7 @@
         <v>1790</v>
       </c>
       <c r="X65" s="1">
-        <v>1670</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7092,9 +7222,24 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:X77">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
-      <formula>B3</formula>
+  <conditionalFormatting sqref="B3:X21 V36:V58 V60:V78 B22:U78 W22:X78 V23:V31 V33:V34">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThanOrEqual">
+      <formula>B2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V35">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThanOrEqual">
+      <formula>V32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V59 V22">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThanOrEqual">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V32">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="lessThanOrEqual">
+      <formula>V30</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8724,7 +8869,7 @@
         <v>2340</v>
       </c>
       <c r="S22" s="1">
-        <v>2085</v>
+        <v>2100</v>
       </c>
       <c r="T22" s="1">
         <v>2025</v>
@@ -8798,7 +8943,7 @@
         <v>2360</v>
       </c>
       <c r="S23" s="1">
-        <v>2100</v>
+        <v>2115</v>
       </c>
       <c r="T23" s="1">
         <v>2040</v>
@@ -8872,7 +9017,7 @@
         <v>2380</v>
       </c>
       <c r="S24" s="1">
-        <v>2115</v>
+        <v>2130</v>
       </c>
       <c r="T24" s="1">
         <v>2055</v>
@@ -8946,7 +9091,7 @@
         <v>2400</v>
       </c>
       <c r="S25" s="1">
-        <v>2130</v>
+        <v>2145</v>
       </c>
       <c r="T25" s="1">
         <v>2070</v>
@@ -9020,7 +9165,7 @@
         <v>2420</v>
       </c>
       <c r="S26" s="1">
-        <v>2145</v>
+        <v>2160</v>
       </c>
       <c r="T26" s="1">
         <v>2085</v>
@@ -9094,10 +9239,10 @@
         <v>2440</v>
       </c>
       <c r="S27" s="1">
-        <v>2160</v>
+        <v>2175</v>
       </c>
       <c r="T27" s="1">
-        <v>2085</v>
+        <v>2100</v>
       </c>
       <c r="U27" s="1">
         <v>2010</v>
@@ -9168,10 +9313,10 @@
         <v>2460</v>
       </c>
       <c r="S28" s="1">
-        <v>2175</v>
+        <v>2190</v>
       </c>
       <c r="T28" s="1">
-        <v>2100</v>
+        <v>2115</v>
       </c>
       <c r="U28" s="1">
         <v>2025</v>
@@ -9242,10 +9387,10 @@
         <v>2490</v>
       </c>
       <c r="S29" s="1">
-        <v>2190</v>
+        <v>2205</v>
       </c>
       <c r="T29" s="1">
-        <v>2115</v>
+        <v>2130</v>
       </c>
       <c r="U29" s="1">
         <v>2040</v>
@@ -9316,10 +9461,10 @@
         <v>2510</v>
       </c>
       <c r="S30" s="1">
-        <v>2205</v>
+        <v>2220</v>
       </c>
       <c r="T30" s="1">
-        <v>2130</v>
+        <v>2145</v>
       </c>
       <c r="U30" s="1">
         <v>2055</v>
@@ -9390,10 +9535,10 @@
         <v>2530</v>
       </c>
       <c r="S31" s="1">
-        <v>2220</v>
+        <v>2230</v>
       </c>
       <c r="T31" s="1">
-        <v>2145</v>
+        <v>2160</v>
       </c>
       <c r="U31" s="1">
         <v>2070</v>
@@ -9464,10 +9609,10 @@
         <v>2550</v>
       </c>
       <c r="S32" s="1">
-        <v>2230</v>
+        <v>2240</v>
       </c>
       <c r="T32" s="1">
-        <v>2160</v>
+        <v>2175</v>
       </c>
       <c r="U32" s="1">
         <v>2085</v>
@@ -9538,13 +9683,13 @@
         <v>2570</v>
       </c>
       <c r="S33" s="1">
-        <v>2240</v>
+        <v>2250</v>
       </c>
       <c r="T33" s="1">
-        <v>2175</v>
+        <v>2190</v>
       </c>
       <c r="U33" s="1">
-        <v>2085</v>
+        <v>2100</v>
       </c>
       <c r="V33" s="1">
         <v>1935</v>
@@ -9612,13 +9757,13 @@
         <v>2590</v>
       </c>
       <c r="S34" s="1">
-        <v>2250</v>
+        <v>2260</v>
       </c>
       <c r="T34" s="1">
-        <v>2190</v>
+        <v>2205</v>
       </c>
       <c r="U34" s="1">
-        <v>2100</v>
+        <v>2115</v>
       </c>
       <c r="V34" s="1">
         <v>1950</v>
@@ -9686,13 +9831,13 @@
         <v>2610</v>
       </c>
       <c r="S35" s="1">
-        <v>2260</v>
+        <v>2275</v>
       </c>
       <c r="T35" s="1">
-        <v>2205</v>
+        <v>2220</v>
       </c>
       <c r="U35" s="1">
-        <v>2115</v>
+        <v>2130</v>
       </c>
       <c r="V35" s="1">
         <v>1960</v>
@@ -9760,13 +9905,13 @@
         <v>2630</v>
       </c>
       <c r="S36" s="1">
-        <v>2275</v>
+        <v>2290</v>
       </c>
       <c r="T36" s="1">
-        <v>2220</v>
+        <v>2230</v>
       </c>
       <c r="U36" s="1">
-        <v>2130</v>
+        <v>2145</v>
       </c>
       <c r="V36" s="1">
         <v>1970</v>
@@ -9834,13 +9979,13 @@
         <v>2660</v>
       </c>
       <c r="S37" s="1">
-        <v>2290</v>
+        <v>2305</v>
       </c>
       <c r="T37" s="1">
-        <v>2230</v>
+        <v>2240</v>
       </c>
       <c r="U37" s="1">
-        <v>2145</v>
+        <v>2160</v>
       </c>
       <c r="V37" s="1">
         <v>1980</v>
@@ -9911,10 +10056,10 @@
         <v>2300</v>
       </c>
       <c r="T38" s="1">
-        <v>2240</v>
+        <v>2250</v>
       </c>
       <c r="U38" s="1">
-        <v>2160</v>
+        <v>2175</v>
       </c>
       <c r="V38" s="1">
         <v>1995</v>
@@ -9985,10 +10130,10 @@
         <v>2310</v>
       </c>
       <c r="T39" s="1">
-        <v>2250</v>
+        <v>2260</v>
       </c>
       <c r="U39" s="1">
-        <v>2175</v>
+        <v>2190</v>
       </c>
       <c r="V39" s="1">
         <v>2020</v>
@@ -10059,10 +10204,10 @@
         <v>2330</v>
       </c>
       <c r="T40" s="1">
-        <v>2260</v>
+        <v>2275</v>
       </c>
       <c r="U40" s="1">
-        <v>2190</v>
+        <v>2200</v>
       </c>
       <c r="V40" s="1">
         <v>2030</v>
@@ -10133,10 +10278,10 @@
         <v>2340</v>
       </c>
       <c r="T41" s="1">
-        <v>2275</v>
+        <v>2290</v>
       </c>
       <c r="U41" s="1">
-        <v>2205</v>
+        <v>2210</v>
       </c>
       <c r="V41" s="1">
         <v>2045</v>
@@ -10204,13 +10349,13 @@
         <v>2760</v>
       </c>
       <c r="S42" s="1">
-        <v>2340</v>
+        <v>2355</v>
       </c>
       <c r="T42" s="1">
-        <v>2275</v>
+        <v>2300</v>
       </c>
       <c r="U42" s="1">
-        <v>2205</v>
+        <v>2220</v>
       </c>
       <c r="V42" s="1">
         <v>2060</v>
@@ -10233,7 +10378,7 @@
         <v>1660</v>
       </c>
       <c r="D43" s="1">
-        <v>1670</v>
+        <v>1680</v>
       </c>
       <c r="E43" s="1">
         <v>2040</v>
@@ -10281,10 +10426,10 @@
         <v>2370</v>
       </c>
       <c r="T43" s="1">
-        <v>2290</v>
+        <v>2315</v>
       </c>
       <c r="U43" s="1">
-        <v>2220</v>
+        <v>2230</v>
       </c>
       <c r="V43" s="1">
         <v>2075</v>
@@ -10304,10 +10449,10 @@
         <v>1660</v>
       </c>
       <c r="C44" s="1">
-        <v>1670</v>
+        <v>1680</v>
       </c>
       <c r="D44" s="1">
-        <v>1680</v>
+        <v>1690</v>
       </c>
       <c r="E44" s="1">
         <v>2060</v>
@@ -10355,10 +10500,10 @@
         <v>2385</v>
       </c>
       <c r="T44" s="1">
-        <v>2300</v>
+        <v>2330</v>
       </c>
       <c r="U44" s="1">
-        <v>2235</v>
+        <v>2240</v>
       </c>
       <c r="V44" s="1">
         <v>2090</v>
@@ -10375,10 +10520,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>1670</v>
+        <v>1680</v>
       </c>
       <c r="C45" s="1">
-        <v>1680</v>
+        <v>1690</v>
       </c>
       <c r="D45" s="1">
         <v>1700</v>
@@ -10429,7 +10574,7 @@
         <v>2400</v>
       </c>
       <c r="T45" s="1">
-        <v>2315</v>
+        <v>2345</v>
       </c>
       <c r="U45" s="1">
         <v>2250</v>
@@ -10449,7 +10594,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>1680</v>
+        <v>1690</v>
       </c>
       <c r="C46" s="1">
         <v>1700</v>
@@ -10503,7 +10648,7 @@
         <v>2415</v>
       </c>
       <c r="T46" s="1">
-        <v>2330</v>
+        <v>2360</v>
       </c>
       <c r="U46" s="1">
         <v>2265</v>
@@ -10577,7 +10722,7 @@
         <v>2430</v>
       </c>
       <c r="T47" s="1">
-        <v>2345</v>
+        <v>2370</v>
       </c>
       <c r="U47" s="1">
         <v>2280</v>
@@ -10651,7 +10796,7 @@
         <v>2445</v>
       </c>
       <c r="T48" s="1">
-        <v>2360</v>
+        <v>2380</v>
       </c>
       <c r="U48" s="1">
         <v>2290</v>
@@ -10725,7 +10870,7 @@
         <v>2460</v>
       </c>
       <c r="T49" s="1">
-        <v>2370</v>
+        <v>2390</v>
       </c>
       <c r="U49" s="1">
         <v>2300</v>
@@ -10799,7 +10944,7 @@
         <v>2470</v>
       </c>
       <c r="T50" s="1">
-        <v>2380</v>
+        <v>2400</v>
       </c>
       <c r="U50" s="1">
         <v>2315</v>
@@ -10873,7 +11018,7 @@
         <v>2485</v>
       </c>
       <c r="T51" s="1">
-        <v>2390</v>
+        <v>2410</v>
       </c>
       <c r="U51" s="1">
         <v>2330</v>
@@ -10947,7 +11092,7 @@
         <v>2500</v>
       </c>
       <c r="T52" s="1">
-        <v>2400</v>
+        <v>2420</v>
       </c>
       <c r="U52" s="1">
         <v>2345</v>
@@ -11021,7 +11166,7 @@
         <v>2510</v>
       </c>
       <c r="T53" s="1">
-        <v>2410</v>
+        <v>2430</v>
       </c>
       <c r="U53" s="1">
         <v>2360</v>
@@ -11095,7 +11240,7 @@
         <v>2520</v>
       </c>
       <c r="T54" s="1">
-        <v>2420</v>
+        <v>2435</v>
       </c>
       <c r="U54" s="1">
         <v>2370</v>
@@ -11169,7 +11314,7 @@
         <v>2530</v>
       </c>
       <c r="T55" s="1">
-        <v>2430</v>
+        <v>2450</v>
       </c>
       <c r="U55" s="1">
         <v>2380</v>
@@ -11243,7 +11388,7 @@
         <v>2540</v>
       </c>
       <c r="T56" s="1">
-        <v>2435</v>
+        <v>2465</v>
       </c>
       <c r="U56" s="1">
         <v>2390</v>
@@ -11317,7 +11462,7 @@
         <v>2565</v>
       </c>
       <c r="T57" s="1">
-        <v>2450</v>
+        <v>2480</v>
       </c>
       <c r="U57" s="1">
         <v>2400</v>
@@ -11391,7 +11536,7 @@
         <v>2580</v>
       </c>
       <c r="T58" s="1">
-        <v>2465</v>
+        <v>2495</v>
       </c>
       <c r="U58" s="1">
         <v>2410</v>
@@ -11465,7 +11610,7 @@
         <v>2590</v>
       </c>
       <c r="T59" s="1">
-        <v>2480</v>
+        <v>2510</v>
       </c>
       <c r="U59" s="1">
         <v>2420</v>
@@ -11539,7 +11684,7 @@
         <v>2600</v>
       </c>
       <c r="T60" s="1">
-        <v>2495</v>
+        <v>2525</v>
       </c>
       <c r="U60" s="1">
         <v>2430</v>
@@ -11613,7 +11758,7 @@
         <v>2615</v>
       </c>
       <c r="T61" s="1">
-        <v>2510</v>
+        <v>2540</v>
       </c>
       <c r="U61" s="1">
         <v>2435</v>
@@ -11687,7 +11832,7 @@
         <v>2630</v>
       </c>
       <c r="T62" s="1">
-        <v>2525</v>
+        <v>2550</v>
       </c>
       <c r="U62" s="1">
         <v>2450</v>
@@ -11761,7 +11906,7 @@
         <v>2645</v>
       </c>
       <c r="T63" s="1">
-        <v>2540</v>
+        <v>2560</v>
       </c>
       <c r="U63" s="1">
         <v>2465</v>
@@ -11909,7 +12054,7 @@
         <v>2670</v>
       </c>
       <c r="T65" s="1">
-        <v>2575</v>
+        <v>2580</v>
       </c>
       <c r="U65" s="1">
         <v>2495</v>
@@ -11983,7 +12128,7 @@
         <v>2680</v>
       </c>
       <c r="T66" s="1">
-        <v>2580</v>
+        <v>2585</v>
       </c>
       <c r="U66" s="1">
         <v>2510</v>
@@ -13809,9 +13954,24 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:X77">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
-      <formula>B3</formula>
+  <conditionalFormatting sqref="B3:X21 B22:R78 T22:X26 S39:S78 S23:S37 U27:X32 T28:T41 T65:T78 T43:T63 V33:X78 U43:U78 U34:U41">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThanOrEqual">
+      <formula>B2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S22 T27 T42 U33">
+    <cfRule type="cellIs" dxfId="3" priority="14" operator="lessThanOrEqual">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S38 U42">
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="lessThanOrEqual">
+      <formula>S36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T64">
+    <cfRule type="cellIs" dxfId="1" priority="19" operator="lessThanOrEqual">
+      <formula>T61</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/aerob-run-12min.xlsx
+++ b/xlsx/aerob-run-12min.xlsx
@@ -59,87 +59,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7223,22 +7143,22 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B3:X21 V36:V58 V60:V78 B22:U78 W22:X78 V23:V31 V33:V34">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThanOrEqual">
       <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThanOrEqual">
       <formula>V32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V59 V22">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThanOrEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V32">
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="lessThanOrEqual">
       <formula>V30</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9979,7 +9899,7 @@
         <v>2660</v>
       </c>
       <c r="S37" s="1">
-        <v>2305</v>
+        <v>2300</v>
       </c>
       <c r="T37" s="1">
         <v>2240</v>
@@ -10053,7 +9973,7 @@
         <v>2680</v>
       </c>
       <c r="S38" s="1">
-        <v>2300</v>
+        <v>2305</v>
       </c>
       <c r="T38" s="1">
         <v>2250</v>
@@ -13955,22 +13875,22 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B3:X21 B22:R78 T22:X26 S39:S78 S23:S37 U27:X32 T28:T41 T65:T78 T43:T63 V33:X78 U43:U78 U34:U41">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThanOrEqual">
       <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S22 T27 T42 U33">
-    <cfRule type="cellIs" dxfId="3" priority="14" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="lessThanOrEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S38 U42">
-    <cfRule type="cellIs" dxfId="2" priority="15" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="lessThanOrEqual">
       <formula>S36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T64">
-    <cfRule type="cellIs" dxfId="1" priority="19" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="lessThanOrEqual">
       <formula>T61</formula>
     </cfRule>
   </conditionalFormatting>
